--- a/results/simulation_lorenz/tab.xlsx
+++ b/results/simulation_lorenz/tab.xlsx
@@ -413,19 +413,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="F2" t="n">
-        <v>1.36</v>
+        <v>5.9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.69</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -442,31 +442,31 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>6.33</v>
       </c>
       <c r="G3" t="n">
-        <v>0.79</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>2242</v>
+        <v>537</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -477,28 +477,28 @@
         <v>250</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
       <c r="F4" t="n">
-        <v>1.55</v>
+        <v>6.56</v>
       </c>
       <c r="G4" t="n">
-        <v>0.79</v>
+        <v>1.49</v>
       </c>
       <c r="H4" t="n">
-        <v>2466</v>
+        <v>622</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -506,31 +506,31 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>6.65</v>
       </c>
       <c r="G5" t="n">
-        <v>0.79</v>
+        <v>1.52</v>
       </c>
       <c r="H5" t="n">
-        <v>2649</v>
+        <v>627</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -538,31 +538,31 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C6" t="n">
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="E6" t="n">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="F6" t="n">
-        <v>1.56</v>
+        <v>6.84</v>
       </c>
       <c r="G6" t="n">
-        <v>0.81</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>2661</v>
+        <v>700</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -570,31 +570,31 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>4671</v>
+        <v>982</v>
       </c>
       <c r="C7" t="n">
-        <v>893</v>
+        <v>85</v>
       </c>
       <c r="D7" t="n">
-        <v>401</v>
+        <v>3301</v>
       </c>
       <c r="E7" t="n">
-        <v>0.18</v>
+        <v>1.71</v>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>8.93</v>
       </c>
       <c r="G7" t="n">
-        <v>1.22</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>33543</v>
+        <v>1625</v>
       </c>
       <c r="I7" t="n">
-        <v>576</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>572</v>
+        <v>2177</v>
       </c>
     </row>
   </sheetData>
